--- a/Stylesheet.xlsx
+++ b/Stylesheet.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dgabr\OneDrive\Documentos\Gabriel (cloud)\DeskPyLab\Lab - Projects for sale\XL-PDF drawer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46C5E588-7245-4F40-BB82-46D252BF0340}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96A24DFA-EBFA-44BB-A08A-0593E091211A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{64D02EFF-E96B-4B4A-A572-6D3FB01F69BE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{64D02EFF-E96B-4B4A-A572-6D3FB01F69BE}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Weekly Newsletter" sheetId="5" r:id="rId1"/>
+    <sheet name="Form" sheetId="1" r:id="rId2"/>
+    <sheet name="Billing" sheetId="6" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,21 +38,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
-  <si>
-    <t>DeskPyL</t>
-  </si>
-  <si>
-    <t>XL-PDF Drawer</t>
-  </si>
-  <si>
-    <t>Personal Information</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
   <si>
     <t>IDENTIFICATION</t>
-  </si>
-  <si>
-    <t>AGE</t>
   </si>
   <si>
     <t>NAME</t>
@@ -61,44 +49,97 @@
     <t>FIRST LASTNAME</t>
   </si>
   <si>
-    <t>CITY</t>
-  </si>
-  <si>
-    <t>STREET</t>
-  </si>
-  <si>
     <t>PHONE</t>
-  </si>
-  <si>
-    <t>Address</t>
-  </si>
-  <si>
-    <t>Contact</t>
   </si>
   <si>
     <t>E-MAIL</t>
   </si>
   <si>
-    <t>COUNTRY</t>
+    <t>SECOND LASTNAME</t>
   </si>
   <si>
-    <t>SECOND LASTNAME</t>
+    <r>
+      <t>COMPANY</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>LOGO</t>
+    </r>
+  </si>
+  <si>
+    <t>👽</t>
+  </si>
+  <si>
+    <t>COMPANY WEEKLY NEWS</t>
+  </si>
+  <si>
+    <t>NEWSLETTER TEMPLATE</t>
+  </si>
+  <si>
+    <t>Easily create and send email marketing campaigns with our pre-designed templates. Stand out from your readers' emails with subject lines optimized with A/B testing.</t>
+  </si>
+  <si>
+    <t>Paragraph</t>
+  </si>
+  <si>
+    <t>Titular</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>CONTACT FORM</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>DATE</t>
+  </si>
+  <si>
+    <t>DOCUMENT
+EXPIRING DATE</t>
+  </si>
+  <si>
+    <t>PESONAL INFORMATION</t>
+  </si>
+  <si>
+    <t>CONTACT INFORMATION</t>
+  </si>
+  <si>
+    <t>I prefer to be contacted by the following ways:</t>
+  </si>
+  <si>
+    <t>WhatsApp (message)</t>
+  </si>
+  <si>
+    <t>Phone call</t>
+  </si>
+  <si>
+    <t>E-mail message</t>
+  </si>
+  <si>
+    <t>You can display an additional relevant message in this section</t>
+  </si>
+  <si>
+    <t>FULL NAME</t>
+  </si>
+  <si>
+    <t>I consent to receive notifications to the means indicated in this document.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -115,22 +156,84 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
-      <color rgb="FFEADCF4"/>
+      <sz val="18"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="0" tint="-0.499984740745262"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="14"/>
+      <sz val="35"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1" tint="0.34998626667073579"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1" tint="0.34998626667073579"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.34998626667073579"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -139,24 +242,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF7030A0"/>
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFEADCF4"/>
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1" tint="0.249977111117893"/>
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -182,35 +291,266 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="9" tint="-0.499984740745262"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="9" tint="-0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="9" tint="-0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="9" tint="-0.499984740745262"/>
+      </right>
+      <top style="medium">
+        <color theme="9" tint="-0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="9" tint="-0.499984740745262"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="9" tint="-0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right style="medium">
+        <color theme="9" tint="-0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="9" tint="-0.499984740745262"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="9" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="9" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right style="medium">
+        <color theme="9" tint="-0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="9" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="9" tint="-0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="9" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -220,6 +560,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF006600"/>
       <color rgb="FFEADCF4"/>
     </mruColors>
   </colors>
@@ -530,29 +871,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C15A16F5-7B58-45FF-9D24-869C14B9252A}">
-  <dimension ref="A1:M26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{367D9362-5B3A-4189-A68F-0329A677184A}">
+  <dimension ref="A1:J46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11:I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" customWidth="1"/>
-    <col min="2" max="4" width="7.7109375" customWidth="1"/>
-    <col min="5" max="5" width="3.7109375" customWidth="1"/>
-    <col min="6" max="8" width="7.7109375" customWidth="1"/>
-    <col min="9" max="9" width="3.7109375" customWidth="1"/>
-    <col min="10" max="12" width="7.7109375" customWidth="1"/>
-    <col min="13" max="13" width="6.7109375" customWidth="1"/>
-    <col min="14" max="14" width="7.7109375" customWidth="1"/>
+    <col min="1" max="10" width="8.7109375" customWidth="1"/>
+    <col min="11" max="11" width="7.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="4"/>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -562,88 +895,89 @@
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-    </row>
-    <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
+      <c r="D2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-    </row>
-    <row r="3" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-    </row>
-    <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-    </row>
-    <row r="5" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B7" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+    </row>
+    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+    </row>
+    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+    </row>
+    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+    </row>
+    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>9</v>
+      </c>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
@@ -653,200 +987,499 @@
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="2"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B11" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="1"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B14" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B16" s="8" t="s">
+    </row>
+    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+    </row>
+    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+    </row>
+    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="4"/>
+      <c r="B11" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B20" s="6" t="s">
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="4"/>
+    </row>
+    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="4"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="4"/>
+    </row>
+    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="4"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="4"/>
+    </row>
+    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="4"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="4"/>
+    </row>
+    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+    </row>
+    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+    </row>
+    <row r="17" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B22" s="8" t="s">
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+    </row>
+    <row r="18" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="13"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+    </row>
+    <row r="19" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="13"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+    </row>
+    <row r="20" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+    </row>
+    <row r="21" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="10"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+    </row>
+    <row r="22" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
-    </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
-    </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-    </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B26" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="F26" s="6" t="s">
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+    </row>
+    <row r="23" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="11"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+    </row>
+    <row r="24" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="11"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+    </row>
+    <row r="25" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="11"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+    </row>
+    <row r="26" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="11"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+    </row>
+    <row r="27" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="13"/>
+    </row>
+    <row r="28" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="13"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
+    </row>
+    <row r="29" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="13"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="13"/>
+    </row>
+    <row r="30" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
+    </row>
+    <row r="31" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="10"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
+    </row>
+    <row r="32" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+    </row>
+    <row r="33" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="11"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+    </row>
+    <row r="34" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="11"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="11"/>
+    </row>
+    <row r="35" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="11"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
+    </row>
+    <row r="36" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="11"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="11"/>
+    </row>
+    <row r="37" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B37" s="13"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="13"/>
+      <c r="J37" s="13"/>
+    </row>
+    <row r="38" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="13"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="13"/>
+      <c r="I38" s="13"/>
+      <c r="J38" s="13"/>
+    </row>
+    <row r="39" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="13"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="13"/>
+      <c r="G39" s="13"/>
+      <c r="H39" s="13"/>
+      <c r="I39" s="13"/>
+      <c r="J39" s="13"/>
+    </row>
+    <row r="40" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B40" s="10"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="10"/>
+    </row>
+    <row r="41" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="10"/>
+      <c r="B41" s="10"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="10"/>
+      <c r="I41" s="10"/>
+      <c r="J41" s="10"/>
+    </row>
+    <row r="42" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B42" s="11"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="11"/>
+      <c r="I42" s="11"/>
+      <c r="J42" s="11"/>
+    </row>
+    <row r="43" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="11"/>
+      <c r="B43" s="11"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="11"/>
+      <c r="I43" s="11"/>
+      <c r="J43" s="11"/>
+    </row>
+    <row r="44" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="11"/>
+      <c r="B44" s="11"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="11"/>
+      <c r="H44" s="11"/>
+      <c r="I44" s="11"/>
+      <c r="J44" s="11"/>
+    </row>
+    <row r="45" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="11"/>
+      <c r="B45" s="11"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="11"/>
+      <c r="I45" s="11"/>
+      <c r="J45" s="11"/>
+    </row>
+    <row r="46" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="11"/>
+      <c r="B46" s="11"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="11"/>
+      <c r="I46" s="11"/>
+      <c r="J46" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B7:L8"/>
-    <mergeCell ref="B16:L17"/>
-    <mergeCell ref="B22:L23"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="A1:M3"/>
-    <mergeCell ref="A4:M5"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="F11:H11"/>
+  <mergeCells count="14">
+    <mergeCell ref="A40:J41"/>
+    <mergeCell ref="A42:J46"/>
+    <mergeCell ref="A22:J26"/>
+    <mergeCell ref="A27:J29"/>
+    <mergeCell ref="A30:J31"/>
+    <mergeCell ref="A32:J36"/>
+    <mergeCell ref="A37:J39"/>
+    <mergeCell ref="E2:G3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="A5:J7"/>
+    <mergeCell ref="A8:J9"/>
+    <mergeCell ref="A17:J19"/>
+    <mergeCell ref="A20:J21"/>
+    <mergeCell ref="B11:I14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -854,27 +1487,1427 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{132D354A-CC8A-4A40-8CB9-A8038440BF82}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C15A16F5-7B58-45FF-9D24-869C14B9252A}">
+  <dimension ref="A1:P46"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="Z32" sqref="Z32"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:16" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="14"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+    </row>
+    <row r="2" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="14"/>
+      <c r="B2" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="39"/>
+      <c r="P2" s="14"/>
+    </row>
+    <row r="3" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="14"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="41"/>
+      <c r="O3" s="42"/>
+      <c r="P3" s="14"/>
+    </row>
+    <row r="4" spans="1:16" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="14"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="44"/>
+      <c r="K4" s="44"/>
+      <c r="L4" s="44"/>
+      <c r="M4" s="44"/>
+      <c r="N4" s="44"/>
+      <c r="O4" s="45"/>
+      <c r="P4" s="14"/>
+    </row>
+    <row r="5" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="14"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="P5" s="14"/>
+    </row>
+    <row r="6" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="14"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="32"/>
+      <c r="P6" s="14"/>
+    </row>
+    <row r="7" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="14"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="L7" s="18"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="32"/>
+      <c r="P7" s="14"/>
+    </row>
+    <row r="8" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="14"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="19"/>
+      <c r="N8" s="19"/>
+      <c r="O8" s="32"/>
+      <c r="P8" s="14"/>
+    </row>
+    <row r="9" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="14"/>
+      <c r="B9" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="29"/>
+      <c r="O9" s="32"/>
+      <c r="P9" s="14"/>
+    </row>
+    <row r="10" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="14"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="28"/>
+      <c r="M10" s="28"/>
+      <c r="N10" s="29"/>
+      <c r="O10" s="32"/>
+      <c r="P10" s="14"/>
+    </row>
+    <row r="11" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="14"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="32"/>
+      <c r="P11" s="14"/>
+    </row>
+    <row r="12" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="14"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="20"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="32"/>
+      <c r="P12" s="14"/>
+    </row>
+    <row r="13" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="14"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="L13" s="18"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="32"/>
+      <c r="P13" s="14"/>
+    </row>
+    <row r="14" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="14"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="19"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="32"/>
+      <c r="P14" s="14"/>
+    </row>
+    <row r="15" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="14"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="32"/>
+      <c r="P15" s="14"/>
+    </row>
+    <row r="16" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="14"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="32"/>
+      <c r="P16" s="14"/>
+    </row>
+    <row r="17" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="14"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="32"/>
+      <c r="P17" s="14"/>
+    </row>
+    <row r="18" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="14"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="32"/>
+      <c r="P18" s="14"/>
+    </row>
+    <row r="19" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="14"/>
+      <c r="B19" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="28"/>
+      <c r="K19" s="28"/>
+      <c r="L19" s="28"/>
+      <c r="M19" s="28"/>
+      <c r="N19" s="29"/>
+      <c r="O19" s="32"/>
+      <c r="P19" s="14"/>
+    </row>
+    <row r="20" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="14"/>
+      <c r="B20" s="33"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="28"/>
+      <c r="L20" s="28"/>
+      <c r="M20" s="28"/>
+      <c r="N20" s="29"/>
+      <c r="O20" s="32"/>
+      <c r="P20" s="14"/>
+    </row>
+    <row r="21" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="14"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="32"/>
+      <c r="P21" s="14"/>
+    </row>
+    <row r="22" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="14"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="47"/>
+      <c r="D22" s="47"/>
+      <c r="E22" s="47"/>
+      <c r="F22" s="47"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="47"/>
+      <c r="I22" s="47"/>
+      <c r="J22" s="47"/>
+      <c r="K22" s="47"/>
+      <c r="L22" s="47"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="32"/>
+      <c r="P22" s="14"/>
+    </row>
+    <row r="23" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="14"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" s="46"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="I23" s="46"/>
+      <c r="J23" s="46"/>
+      <c r="K23" s="46"/>
+      <c r="L23" s="46"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="32"/>
+      <c r="P23" s="14"/>
+    </row>
+    <row r="24" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="14"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="32"/>
+      <c r="P24" s="14"/>
+    </row>
+    <row r="25" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="14"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="22"/>
+      <c r="L25" s="22"/>
+      <c r="M25" s="22"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="32"/>
+      <c r="P25" s="14"/>
+    </row>
+    <row r="26" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="14"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="23"/>
+      <c r="J26" s="23"/>
+      <c r="K26" s="23"/>
+      <c r="L26" s="23"/>
+      <c r="M26" s="23"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="32"/>
+      <c r="P26" s="14"/>
+    </row>
+    <row r="27" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="14"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="24"/>
+      <c r="I27" s="24"/>
+      <c r="J27" s="24"/>
+      <c r="K27" s="24"/>
+      <c r="L27" s="24"/>
+      <c r="M27" s="24"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="32"/>
+      <c r="P27" s="14"/>
+    </row>
+    <row r="28" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="14"/>
+      <c r="B28" s="30"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="23"/>
+      <c r="J28" s="23"/>
+      <c r="K28" s="23"/>
+      <c r="L28" s="23"/>
+      <c r="M28" s="23"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="32"/>
+      <c r="P28" s="14"/>
+    </row>
+    <row r="29" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="14"/>
+      <c r="B29" s="30"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="24"/>
+      <c r="J29" s="24"/>
+      <c r="K29" s="24"/>
+      <c r="L29" s="24"/>
+      <c r="M29" s="24"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="32"/>
+      <c r="P29" s="14"/>
+    </row>
+    <row r="30" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="14"/>
+      <c r="B30" s="30"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="23"/>
+      <c r="I30" s="23"/>
+      <c r="J30" s="23"/>
+      <c r="K30" s="23"/>
+      <c r="L30" s="23"/>
+      <c r="M30" s="23"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="32"/>
+      <c r="P30" s="14"/>
+    </row>
+    <row r="31" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="14"/>
+      <c r="B31" s="30"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="32"/>
+      <c r="P31" s="14"/>
+    </row>
+    <row r="32" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="14"/>
+      <c r="B32" s="30"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="32"/>
+      <c r="P32" s="14"/>
+    </row>
+    <row r="33" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="14"/>
+      <c r="B33" s="30"/>
+      <c r="C33" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="D33" s="49"/>
+      <c r="E33" s="49"/>
+      <c r="F33" s="49"/>
+      <c r="G33" s="49"/>
+      <c r="H33" s="49"/>
+      <c r="I33" s="49"/>
+      <c r="J33" s="49"/>
+      <c r="K33" s="49"/>
+      <c r="L33" s="49"/>
+      <c r="M33" s="49"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="32"/>
+      <c r="P33" s="14"/>
+    </row>
+    <row r="34" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="14"/>
+      <c r="B34" s="30"/>
+      <c r="C34" s="49"/>
+      <c r="D34" s="49"/>
+      <c r="E34" s="49"/>
+      <c r="F34" s="49"/>
+      <c r="G34" s="49"/>
+      <c r="H34" s="49"/>
+      <c r="I34" s="49"/>
+      <c r="J34" s="49"/>
+      <c r="K34" s="49"/>
+      <c r="L34" s="49"/>
+      <c r="M34" s="49"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="32"/>
+      <c r="P34" s="14"/>
+    </row>
+    <row r="35" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="14"/>
+      <c r="B35" s="30"/>
+      <c r="C35" s="49"/>
+      <c r="D35" s="49"/>
+      <c r="E35" s="49"/>
+      <c r="F35" s="49"/>
+      <c r="G35" s="49"/>
+      <c r="H35" s="49"/>
+      <c r="I35" s="49"/>
+      <c r="J35" s="49"/>
+      <c r="K35" s="49"/>
+      <c r="L35" s="49"/>
+      <c r="M35" s="49"/>
+      <c r="N35" s="3"/>
+      <c r="O35" s="32"/>
+      <c r="P35" s="14"/>
+    </row>
+    <row r="36" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="14"/>
+      <c r="B36" s="30"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="15"/>
+      <c r="K36" s="15"/>
+      <c r="L36" s="3"/>
+      <c r="M36" s="3"/>
+      <c r="N36" s="3"/>
+      <c r="O36" s="32"/>
+      <c r="P36" s="14"/>
+    </row>
+    <row r="37" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="14"/>
+      <c r="B37" s="30"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="15"/>
+      <c r="H37" s="15"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="15"/>
+      <c r="K37" s="15"/>
+      <c r="L37" s="3"/>
+      <c r="M37" s="3"/>
+      <c r="N37" s="3"/>
+      <c r="O37" s="32"/>
+      <c r="P37" s="14"/>
+    </row>
+    <row r="38" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="14"/>
+      <c r="B38" s="30"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="48"/>
+      <c r="F38" s="48"/>
+      <c r="G38" s="48"/>
+      <c r="H38" s="48"/>
+      <c r="I38" s="48"/>
+      <c r="J38" s="48"/>
+      <c r="K38" s="48"/>
+      <c r="L38" s="3"/>
+      <c r="M38" s="3"/>
+      <c r="N38" s="3"/>
+      <c r="O38" s="32"/>
+      <c r="P38" s="14"/>
+    </row>
+    <row r="39" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="14"/>
+      <c r="B39" s="30"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="F39" s="25"/>
+      <c r="G39" s="25"/>
+      <c r="H39" s="25"/>
+      <c r="I39" s="25"/>
+      <c r="J39" s="25"/>
+      <c r="K39" s="25"/>
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+      <c r="O39" s="32"/>
+      <c r="P39" s="14"/>
+    </row>
+    <row r="40" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="14"/>
+      <c r="B40" s="30"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="F40" s="27"/>
+      <c r="G40" s="27"/>
+      <c r="H40" s="27"/>
+      <c r="I40" s="27"/>
+      <c r="J40" s="27"/>
+      <c r="K40" s="27"/>
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+      <c r="O40" s="32"/>
+      <c r="P40" s="14"/>
+    </row>
+    <row r="41" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="14"/>
+      <c r="B41" s="30"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="27"/>
+      <c r="F41" s="27"/>
+      <c r="G41" s="27"/>
+      <c r="H41" s="27"/>
+      <c r="I41" s="27"/>
+      <c r="J41" s="27"/>
+      <c r="K41" s="27"/>
+      <c r="L41" s="3"/>
+      <c r="M41" s="3"/>
+      <c r="N41" s="3"/>
+      <c r="O41" s="32"/>
+      <c r="P41" s="14"/>
+    </row>
+    <row r="42" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="14"/>
+      <c r="B42" s="30"/>
+      <c r="N42" s="3"/>
+      <c r="O42" s="32"/>
+      <c r="P42" s="14"/>
+    </row>
+    <row r="43" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="14"/>
+      <c r="B43" s="30"/>
+      <c r="N43" s="3"/>
+      <c r="O43" s="32"/>
+      <c r="P43" s="14"/>
+    </row>
+    <row r="44" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="14"/>
+      <c r="B44" s="30"/>
+      <c r="N44" s="3"/>
+      <c r="O44" s="32"/>
+      <c r="P44" s="14"/>
+    </row>
+    <row r="45" spans="1:16" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="14"/>
+      <c r="B45" s="34"/>
+      <c r="C45" s="35"/>
+      <c r="D45" s="35"/>
+      <c r="E45" s="35"/>
+      <c r="F45" s="35"/>
+      <c r="G45" s="35"/>
+      <c r="H45" s="35"/>
+      <c r="I45" s="35"/>
+      <c r="J45" s="35"/>
+      <c r="K45" s="35"/>
+      <c r="L45" s="35"/>
+      <c r="M45" s="35"/>
+      <c r="N45" s="35"/>
+      <c r="O45" s="36"/>
+      <c r="P45" s="14"/>
+    </row>
+    <row r="46" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="14"/>
+      <c r="B46" s="14"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="14"/>
+      <c r="G46" s="14"/>
+      <c r="H46" s="14"/>
+      <c r="I46" s="14"/>
+      <c r="J46" s="14"/>
+      <c r="K46" s="14"/>
+      <c r="L46" s="14"/>
+      <c r="M46" s="14"/>
+      <c r="N46" s="14"/>
+      <c r="O46" s="14"/>
+      <c r="P46" s="14"/>
+    </row>
+  </sheetData>
+  <mergeCells count="25">
+    <mergeCell ref="E40:K41"/>
+    <mergeCell ref="E36:K38"/>
+    <mergeCell ref="E39:K39"/>
+    <mergeCell ref="C33:M35"/>
+    <mergeCell ref="D28:M28"/>
+    <mergeCell ref="D30:M30"/>
+    <mergeCell ref="C25:M25"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="H23:L23"/>
+    <mergeCell ref="H22:L22"/>
+    <mergeCell ref="D26:M26"/>
+    <mergeCell ref="O5:O45"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="G16:I17"/>
+    <mergeCell ref="K7:M7"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="B9:N10"/>
+    <mergeCell ref="B19:N20"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="B2:O4"/>
+  </mergeCells>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F59970E1-81CE-40AD-BE4A-22C8E215087D}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79B16281-594F-4424-89B7-F6AD70B2B4CB}">
+  <dimension ref="A1:J46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="10" width="8.7109375" customWidth="1"/>
+    <col min="11" max="11" width="7.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+    </row>
+    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+    </row>
+    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+    </row>
+    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+    </row>
+    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+    </row>
+    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+    </row>
+    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+    </row>
+    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+    </row>
+    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+    </row>
+    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+    </row>
+    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+    </row>
+    <row r="17" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+    </row>
+    <row r="18" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+    </row>
+    <row r="19" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+    </row>
+    <row r="20" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+    </row>
+    <row r="21" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+    </row>
+    <row r="22" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+    </row>
+    <row r="23" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+    </row>
+    <row r="24" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+    </row>
+    <row r="25" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+    </row>
+    <row r="26" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+    </row>
+    <row r="27" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+    </row>
+    <row r="28" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+    </row>
+    <row r="29" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" s="2"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Stylesheet.xlsx
+++ b/Stylesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dgabr\OneDrive\Documentos\Gabriel (cloud)\DeskPyLab\Lab - Projects for sale\XL-PDF drawer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96A24DFA-EBFA-44BB-A08A-0593E091211A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6912A43-E60C-4A25-9C76-E72411F014FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{64D02EFF-E96B-4B4A-A572-6D3FB01F69BE}"/>
   </bookViews>
@@ -38,10 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
-  <si>
-    <t>IDENTIFICATION</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
   <si>
     <t>NAME</t>
   </si>
@@ -128,10 +125,10 @@
     <t>You can display an additional relevant message in this section</t>
   </si>
   <si>
-    <t>FULL NAME</t>
-  </si>
-  <si>
     <t>I consent to receive notifications to the means indicated in this document.</t>
+  </si>
+  <si>
+    <t>***FULL NAME***</t>
   </si>
 </sst>
 </file>
@@ -423,96 +420,94 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -525,7 +520,7 @@
     <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -540,17 +535,8 @@
     <xf numFmtId="0" fontId="12" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -885,210 +871,210 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="4"/>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="5" t="s">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+    </row>
+    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+    </row>
+    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+    </row>
+    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-    </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-    </row>
-    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-    </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+    </row>
+    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="16"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+    </row>
+    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="16"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+    </row>
+    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-    </row>
-    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-    </row>
-    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-    </row>
-    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+    </row>
+    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="17"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+    </row>
+    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+    </row>
+    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="2"/>
+      <c r="B11" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-    </row>
-    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-    </row>
-    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-    </row>
-    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="4"/>
-      <c r="B11" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="4"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="2"/>
     </row>
     <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="4"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="4"/>
+      <c r="A12" s="2"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="2"/>
     </row>
     <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="4"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="4"/>
+      <c r="A13" s="2"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="2"/>
     </row>
     <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="4"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="4"/>
+      <c r="A14" s="2"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="2"/>
     </row>
     <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
     </row>
     <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
     </row>
     <row r="17" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B17" s="13"/>
       <c r="C17" s="13"/>
@@ -1126,7 +1112,7 @@
     </row>
     <row r="20" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
@@ -1152,7 +1138,7 @@
     </row>
     <row r="22" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
@@ -1214,7 +1200,7 @@
     </row>
     <row r="27" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B27" s="13"/>
       <c r="C27" s="13"/>
@@ -1252,7 +1238,7 @@
     </row>
     <row r="30" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
@@ -1278,7 +1264,7 @@
     </row>
     <row r="32" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -1340,7 +1326,7 @@
     </row>
     <row r="37" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B37" s="13"/>
       <c r="C37" s="13"/>
@@ -1378,7 +1364,7 @@
     </row>
     <row r="40" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B40" s="10"/>
       <c r="C40" s="10"/>
@@ -1404,7 +1390,7 @@
     </row>
     <row r="42" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B42" s="11"/>
       <c r="C42" s="11"/>
@@ -1466,6 +1452,13 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A20:J21"/>
+    <mergeCell ref="B11:I14"/>
+    <mergeCell ref="E2:G3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="A5:J7"/>
+    <mergeCell ref="A8:J9"/>
+    <mergeCell ref="A17:J19"/>
     <mergeCell ref="A40:J41"/>
     <mergeCell ref="A42:J46"/>
     <mergeCell ref="A22:J26"/>
@@ -1473,13 +1466,6 @@
     <mergeCell ref="A30:J31"/>
     <mergeCell ref="A32:J36"/>
     <mergeCell ref="A37:J39"/>
-    <mergeCell ref="E2:G3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="A5:J7"/>
-    <mergeCell ref="A8:J9"/>
-    <mergeCell ref="A17:J19"/>
-    <mergeCell ref="A20:J21"/>
-    <mergeCell ref="B11:I14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1488,496 +1474,327 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C15A16F5-7B58-45FF-9D24-869C14B9252A}">
-  <dimension ref="A1:P46"/>
+  <dimension ref="B1:O45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="Z32" sqref="Z32"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36:K38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:16" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="14"/>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
-    </row>
-    <row r="2" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="14"/>
-      <c r="B2" s="37" t="s">
+    <row r="1" spans="2:15" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="35"/>
+    </row>
+    <row r="3" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="36"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="37"/>
+      <c r="M3" s="37"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="38"/>
+    </row>
+    <row r="4" spans="2:15" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="39"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="40"/>
+      <c r="N4" s="40"/>
+      <c r="O4" s="41"/>
+    </row>
+    <row r="5" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="6"/>
+      <c r="O5" s="25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="7"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="27"/>
+      <c r="O6" s="25"/>
+    </row>
+    <row r="7" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="7"/>
+      <c r="F7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="L7" s="28"/>
+      <c r="M7" s="28"/>
+      <c r="O7" s="25"/>
+    </row>
+    <row r="8" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="7"/>
+      <c r="F8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="25"/>
+    </row>
+    <row r="9" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="31"/>
+      <c r="L9" s="31"/>
+      <c r="M9" s="31"/>
+      <c r="N9" s="32"/>
+      <c r="O9" s="25"/>
+    </row>
+    <row r="10" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="30"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="31"/>
+      <c r="M10" s="31"/>
+      <c r="N10" s="32"/>
+      <c r="O10" s="25"/>
+    </row>
+    <row r="11" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="7"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="25"/>
+    </row>
+    <row r="12" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="7"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="25"/>
+    </row>
+    <row r="13" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="6"/>
+      <c r="C13" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="L13" s="28"/>
+      <c r="M13" s="28"/>
+      <c r="O13" s="25"/>
+    </row>
+    <row r="14" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="6"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="O14" s="25"/>
+    </row>
+    <row r="15" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="6"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+      <c r="O15" s="25"/>
+    </row>
+    <row r="16" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="6"/>
+      <c r="C16" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38"/>
-      <c r="O2" s="39"/>
-      <c r="P2" s="14"/>
-    </row>
-    <row r="3" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="14"/>
-      <c r="B3" s="40"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="41"/>
-      <c r="N3" s="41"/>
-      <c r="O3" s="42"/>
-      <c r="P3" s="14"/>
-    </row>
-    <row r="4" spans="1:16" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="14"/>
-      <c r="B4" s="43"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="44"/>
-      <c r="I4" s="44"/>
-      <c r="J4" s="44"/>
-      <c r="K4" s="44"/>
-      <c r="L4" s="44"/>
-      <c r="M4" s="44"/>
-      <c r="N4" s="44"/>
-      <c r="O4" s="45"/>
-      <c r="P4" s="14"/>
-    </row>
-    <row r="5" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="14"/>
-      <c r="B5" s="30"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="P5" s="14"/>
-    </row>
-    <row r="6" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="14"/>
-      <c r="B6" s="31"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="21"/>
-      <c r="M6" s="21"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="32"/>
-      <c r="P6" s="14"/>
-    </row>
-    <row r="7" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="14"/>
-      <c r="B7" s="31"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="18" t="s">
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="G16" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="L7" s="18"/>
-      <c r="M7" s="18"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="32"/>
-      <c r="P7" s="14"/>
-    </row>
-    <row r="8" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="14"/>
-      <c r="B8" s="31"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="19"/>
-      <c r="L8" s="19"/>
-      <c r="M8" s="19"/>
-      <c r="N8" s="19"/>
-      <c r="O8" s="32"/>
-      <c r="P8" s="14"/>
-    </row>
-    <row r="9" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="14"/>
-      <c r="B9" s="33" t="s">
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
+      <c r="O16" s="25"/>
+    </row>
+    <row r="17" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="6"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="O17" s="25"/>
+    </row>
+    <row r="18" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="6"/>
+      <c r="O18" s="25"/>
+    </row>
+    <row r="19" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="29"/>
-      <c r="O9" s="32"/>
-      <c r="P9" s="14"/>
-    </row>
-    <row r="10" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="14"/>
-      <c r="B10" s="33"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="28"/>
-      <c r="M10" s="28"/>
-      <c r="N10" s="29"/>
-      <c r="O10" s="32"/>
-      <c r="P10" s="14"/>
-    </row>
-    <row r="11" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="14"/>
-      <c r="B11" s="31"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="19"/>
-      <c r="O11" s="32"/>
-      <c r="P11" s="14"/>
-    </row>
-    <row r="12" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="14"/>
-      <c r="B12" s="31"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="20"/>
-      <c r="L12" s="20"/>
-      <c r="M12" s="20"/>
-      <c r="N12" s="19"/>
-      <c r="O12" s="32"/>
-      <c r="P12" s="14"/>
-    </row>
-    <row r="13" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="14"/>
-      <c r="B13" s="30"/>
-      <c r="C13" s="18" t="s">
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="31"/>
+      <c r="L19" s="31"/>
+      <c r="M19" s="31"/>
+      <c r="N19" s="32"/>
+      <c r="O19" s="25"/>
+    </row>
+    <row r="20" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="30"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="31"/>
+      <c r="K20" s="31"/>
+      <c r="L20" s="31"/>
+      <c r="M20" s="31"/>
+      <c r="N20" s="32"/>
+      <c r="O20" s="25"/>
+    </row>
+    <row r="21" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="6"/>
+      <c r="O21" s="25"/>
+    </row>
+    <row r="22" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="6"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="21"/>
+      <c r="K22" s="21"/>
+      <c r="L22" s="21"/>
+      <c r="O22" s="25"/>
+    </row>
+    <row r="23" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="6"/>
+      <c r="C23" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="L13" s="18"/>
-      <c r="M13" s="18"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="32"/>
-      <c r="P13" s="14"/>
-    </row>
-    <row r="14" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="14"/>
-      <c r="B14" s="30"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="19"/>
-      <c r="L14" s="19"/>
-      <c r="M14" s="19"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="32"/>
-      <c r="P14" s="14"/>
-    </row>
-    <row r="15" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="14"/>
-      <c r="B15" s="30"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="32"/>
-      <c r="P15" s="14"/>
-    </row>
-    <row r="16" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="14"/>
-      <c r="B16" s="30"/>
-      <c r="C16" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="H16" s="26"/>
-      <c r="I16" s="26"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="32"/>
-      <c r="P16" s="14"/>
-    </row>
-    <row r="17" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="14"/>
-      <c r="B17" s="30"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="27"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="32"/>
-      <c r="P17" s="14"/>
-    </row>
-    <row r="18" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="14"/>
-      <c r="B18" s="30"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="32"/>
-      <c r="P18" s="14"/>
-    </row>
-    <row r="19" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="14"/>
-      <c r="B19" s="33" t="s">
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="H23" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="I23" s="20"/>
+      <c r="J23" s="20"/>
+      <c r="K23" s="20"/>
+      <c r="L23" s="20"/>
+      <c r="O23" s="25"/>
+    </row>
+    <row r="24" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="6"/>
+      <c r="O24" s="25"/>
+    </row>
+    <row r="25" spans="2:15" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="6"/>
+      <c r="C25" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="28"/>
-      <c r="K19" s="28"/>
-      <c r="L19" s="28"/>
-      <c r="M19" s="28"/>
-      <c r="N19" s="29"/>
-      <c r="O19" s="32"/>
-      <c r="P19" s="14"/>
-    </row>
-    <row r="20" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="14"/>
-      <c r="B20" s="33"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="28"/>
-      <c r="I20" s="28"/>
-      <c r="J20" s="28"/>
-      <c r="K20" s="28"/>
-      <c r="L20" s="28"/>
-      <c r="M20" s="28"/>
-      <c r="N20" s="29"/>
-      <c r="O20" s="32"/>
-      <c r="P20" s="14"/>
-    </row>
-    <row r="21" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="14"/>
-      <c r="B21" s="30"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="3"/>
-      <c r="O21" s="32"/>
-      <c r="P21" s="14"/>
-    </row>
-    <row r="22" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="14"/>
-      <c r="B22" s="30"/>
-      <c r="C22" s="47"/>
-      <c r="D22" s="47"/>
-      <c r="E22" s="47"/>
-      <c r="F22" s="47"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="47"/>
-      <c r="I22" s="47"/>
-      <c r="J22" s="47"/>
-      <c r="K22" s="47"/>
-      <c r="L22" s="47"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="3"/>
-      <c r="O22" s="32"/>
-      <c r="P22" s="14"/>
-    </row>
-    <row r="23" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="14"/>
-      <c r="B23" s="30"/>
-      <c r="C23" s="46" t="s">
-        <v>3</v>
-      </c>
-      <c r="D23" s="46"/>
-      <c r="E23" s="46"/>
-      <c r="F23" s="46"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="46" t="s">
-        <v>4</v>
-      </c>
-      <c r="I23" s="46"/>
-      <c r="J23" s="46"/>
-      <c r="K23" s="46"/>
-      <c r="L23" s="46"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="3"/>
-      <c r="O23" s="32"/>
-      <c r="P23" s="14"/>
-    </row>
-    <row r="24" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="14"/>
-      <c r="B24" s="30"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
-      <c r="O24" s="32"/>
-      <c r="P24" s="14"/>
-    </row>
-    <row r="25" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="14"/>
-      <c r="B25" s="30"/>
-      <c r="C25" s="22" t="s">
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="24"/>
+      <c r="J25" s="24"/>
+      <c r="K25" s="24"/>
+      <c r="L25" s="24"/>
+      <c r="M25" s="24"/>
+      <c r="O25" s="25"/>
+    </row>
+    <row r="26" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="6"/>
+      <c r="C26" s="42"/>
+      <c r="D26" s="23" t="s">
         <v>20</v>
-      </c>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="22"/>
-      <c r="J25" s="22"/>
-      <c r="K25" s="22"/>
-      <c r="L25" s="22"/>
-      <c r="M25" s="22"/>
-      <c r="N25" s="3"/>
-      <c r="O25" s="32"/>
-      <c r="P25" s="14"/>
-    </row>
-    <row r="26" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="14"/>
-      <c r="B26" s="30"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="23" t="s">
-        <v>21</v>
       </c>
       <c r="E26" s="23"/>
       <c r="F26" s="23"/>
@@ -1988,34 +1805,27 @@
       <c r="K26" s="23"/>
       <c r="L26" s="23"/>
       <c r="M26" s="23"/>
-      <c r="N26" s="3"/>
-      <c r="O26" s="32"/>
-      <c r="P26" s="14"/>
-    </row>
-    <row r="27" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="14"/>
-      <c r="B27" s="30"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="24"/>
-      <c r="I27" s="24"/>
-      <c r="J27" s="24"/>
-      <c r="K27" s="24"/>
-      <c r="L27" s="24"/>
-      <c r="M27" s="24"/>
-      <c r="N27" s="3"/>
-      <c r="O27" s="32"/>
-      <c r="P27" s="14"/>
-    </row>
-    <row r="28" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="14"/>
-      <c r="B28" s="30"/>
-      <c r="C28" s="16"/>
+      <c r="O26" s="25"/>
+    </row>
+    <row r="27" spans="2:15" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="6"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+      <c r="O27" s="25"/>
+    </row>
+    <row r="28" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="6"/>
+      <c r="C28" s="42"/>
       <c r="D28" s="23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E28" s="23"/>
       <c r="F28" s="23"/>
@@ -2026,34 +1836,27 @@
       <c r="K28" s="23"/>
       <c r="L28" s="23"/>
       <c r="M28" s="23"/>
-      <c r="N28" s="3"/>
-      <c r="O28" s="32"/>
-      <c r="P28" s="14"/>
-    </row>
-    <row r="29" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="14"/>
-      <c r="B29" s="30"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="24"/>
-      <c r="H29" s="24"/>
-      <c r="I29" s="24"/>
-      <c r="J29" s="24"/>
-      <c r="K29" s="24"/>
-      <c r="L29" s="24"/>
-      <c r="M29" s="24"/>
-      <c r="N29" s="3"/>
-      <c r="O29" s="32"/>
-      <c r="P29" s="14"/>
-    </row>
-    <row r="30" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="14"/>
-      <c r="B30" s="30"/>
-      <c r="C30" s="16"/>
+      <c r="O28" s="25"/>
+    </row>
+    <row r="29" spans="2:15" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="6"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+      <c r="O29" s="25"/>
+    </row>
+    <row r="30" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="6"/>
+      <c r="C30" s="42"/>
       <c r="D30" s="23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E30" s="23"/>
       <c r="F30" s="23"/>
@@ -2064,262 +1867,155 @@
       <c r="K30" s="23"/>
       <c r="L30" s="23"/>
       <c r="M30" s="23"/>
-      <c r="N30" s="3"/>
-      <c r="O30" s="32"/>
-      <c r="P30" s="14"/>
-    </row>
-    <row r="31" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="14"/>
-      <c r="B31" s="30"/>
-      <c r="N31" s="3"/>
-      <c r="O31" s="32"/>
-      <c r="P31" s="14"/>
-    </row>
-    <row r="32" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="14"/>
-      <c r="B32" s="30"/>
-      <c r="N32" s="3"/>
-      <c r="O32" s="32"/>
-      <c r="P32" s="14"/>
-    </row>
-    <row r="33" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="14"/>
-      <c r="B33" s="30"/>
-      <c r="C33" s="49" t="s">
-        <v>26</v>
-      </c>
-      <c r="D33" s="49"/>
-      <c r="E33" s="49"/>
-      <c r="F33" s="49"/>
-      <c r="G33" s="49"/>
-      <c r="H33" s="49"/>
-      <c r="I33" s="49"/>
-      <c r="J33" s="49"/>
-      <c r="K33" s="49"/>
-      <c r="L33" s="49"/>
-      <c r="M33" s="49"/>
-      <c r="N33" s="3"/>
-      <c r="O33" s="32"/>
-      <c r="P33" s="14"/>
-    </row>
-    <row r="34" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="14"/>
-      <c r="B34" s="30"/>
-      <c r="C34" s="49"/>
-      <c r="D34" s="49"/>
-      <c r="E34" s="49"/>
-      <c r="F34" s="49"/>
-      <c r="G34" s="49"/>
-      <c r="H34" s="49"/>
-      <c r="I34" s="49"/>
-      <c r="J34" s="49"/>
-      <c r="K34" s="49"/>
-      <c r="L34" s="49"/>
-      <c r="M34" s="49"/>
-      <c r="N34" s="3"/>
-      <c r="O34" s="32"/>
-      <c r="P34" s="14"/>
-    </row>
-    <row r="35" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="14"/>
-      <c r="B35" s="30"/>
-      <c r="C35" s="49"/>
-      <c r="D35" s="49"/>
-      <c r="E35" s="49"/>
-      <c r="F35" s="49"/>
-      <c r="G35" s="49"/>
-      <c r="H35" s="49"/>
-      <c r="I35" s="49"/>
-      <c r="J35" s="49"/>
-      <c r="K35" s="49"/>
-      <c r="L35" s="49"/>
-      <c r="M35" s="49"/>
-      <c r="N35" s="3"/>
-      <c r="O35" s="32"/>
-      <c r="P35" s="14"/>
-    </row>
-    <row r="36" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="14"/>
-      <c r="B36" s="30"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="15"/>
-      <c r="F36" s="15"/>
-      <c r="G36" s="15"/>
-      <c r="H36" s="15"/>
-      <c r="I36" s="15"/>
-      <c r="J36" s="15"/>
-      <c r="K36" s="15"/>
-      <c r="L36" s="3"/>
-      <c r="M36" s="3"/>
-      <c r="N36" s="3"/>
-      <c r="O36" s="32"/>
-      <c r="P36" s="14"/>
-    </row>
-    <row r="37" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="14"/>
-      <c r="B37" s="30"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="15"/>
-      <c r="F37" s="15"/>
-      <c r="G37" s="15"/>
-      <c r="H37" s="15"/>
-      <c r="I37" s="15"/>
-      <c r="J37" s="15"/>
-      <c r="K37" s="15"/>
-      <c r="L37" s="3"/>
-      <c r="M37" s="3"/>
-      <c r="N37" s="3"/>
-      <c r="O37" s="32"/>
-      <c r="P37" s="14"/>
-    </row>
-    <row r="38" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="14"/>
-      <c r="B38" s="30"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="48"/>
-      <c r="F38" s="48"/>
-      <c r="G38" s="48"/>
-      <c r="H38" s="48"/>
-      <c r="I38" s="48"/>
-      <c r="J38" s="48"/>
-      <c r="K38" s="48"/>
-      <c r="L38" s="3"/>
-      <c r="M38" s="3"/>
-      <c r="N38" s="3"/>
-      <c r="O38" s="32"/>
-      <c r="P38" s="14"/>
-    </row>
-    <row r="39" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="14"/>
-      <c r="B39" s="30"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="F39" s="25"/>
-      <c r="G39" s="25"/>
-      <c r="H39" s="25"/>
-      <c r="I39" s="25"/>
-      <c r="J39" s="25"/>
-      <c r="K39" s="25"/>
-      <c r="L39" s="3"/>
-      <c r="M39" s="3"/>
-      <c r="N39" s="3"/>
-      <c r="O39" s="32"/>
-      <c r="P39" s="14"/>
-    </row>
-    <row r="40" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="14"/>
-      <c r="B40" s="30"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="27" t="s">
+      <c r="O30" s="25"/>
+    </row>
+    <row r="31" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="6"/>
+      <c r="O31" s="25"/>
+    </row>
+    <row r="32" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="6"/>
+      <c r="O32" s="25"/>
+    </row>
+    <row r="33" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="6"/>
+      <c r="C33" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="D33" s="22"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="22"/>
+      <c r="I33" s="22"/>
+      <c r="J33" s="22"/>
+      <c r="K33" s="22"/>
+      <c r="L33" s="22"/>
+      <c r="M33" s="22"/>
+      <c r="O33" s="25"/>
+    </row>
+    <row r="34" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="6"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="22"/>
+      <c r="G34" s="22"/>
+      <c r="H34" s="22"/>
+      <c r="I34" s="22"/>
+      <c r="J34" s="22"/>
+      <c r="K34" s="22"/>
+      <c r="L34" s="22"/>
+      <c r="M34" s="22"/>
+      <c r="O34" s="25"/>
+    </row>
+    <row r="35" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="6"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="22"/>
+      <c r="I35" s="22"/>
+      <c r="J35" s="22"/>
+      <c r="K35" s="22"/>
+      <c r="L35" s="22"/>
+      <c r="M35" s="22"/>
+      <c r="O35" s="25"/>
+    </row>
+    <row r="36" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="6"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="20"/>
+      <c r="G36" s="20"/>
+      <c r="H36" s="20"/>
+      <c r="I36" s="20"/>
+      <c r="J36" s="20"/>
+      <c r="K36" s="20"/>
+      <c r="O36" s="25"/>
+    </row>
+    <row r="37" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="6"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="20"/>
+      <c r="H37" s="20"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="20"/>
+      <c r="K37" s="20"/>
+      <c r="O37" s="25"/>
+    </row>
+    <row r="38" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="6"/>
+      <c r="E38" s="21"/>
+      <c r="F38" s="21"/>
+      <c r="G38" s="21"/>
+      <c r="H38" s="21"/>
+      <c r="I38" s="21"/>
+      <c r="J38" s="21"/>
+      <c r="K38" s="21"/>
+      <c r="O38" s="25"/>
+    </row>
+    <row r="39" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="6"/>
+      <c r="E39" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="F40" s="27"/>
-      <c r="G40" s="27"/>
-      <c r="H40" s="27"/>
-      <c r="I40" s="27"/>
-      <c r="J40" s="27"/>
-      <c r="K40" s="27"/>
-      <c r="L40" s="3"/>
-      <c r="M40" s="3"/>
-      <c r="N40" s="3"/>
-      <c r="O40" s="32"/>
-      <c r="P40" s="14"/>
-    </row>
-    <row r="41" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="14"/>
-      <c r="B41" s="30"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="27"/>
-      <c r="F41" s="27"/>
-      <c r="G41" s="27"/>
-      <c r="H41" s="27"/>
-      <c r="I41" s="27"/>
-      <c r="J41" s="27"/>
-      <c r="K41" s="27"/>
-      <c r="L41" s="3"/>
-      <c r="M41" s="3"/>
-      <c r="N41" s="3"/>
-      <c r="O41" s="32"/>
-      <c r="P41" s="14"/>
-    </row>
-    <row r="42" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="14"/>
-      <c r="B42" s="30"/>
-      <c r="N42" s="3"/>
-      <c r="O42" s="32"/>
-      <c r="P42" s="14"/>
-    </row>
-    <row r="43" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="14"/>
-      <c r="B43" s="30"/>
-      <c r="N43" s="3"/>
-      <c r="O43" s="32"/>
-      <c r="P43" s="14"/>
-    </row>
-    <row r="44" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="14"/>
-      <c r="B44" s="30"/>
-      <c r="N44" s="3"/>
-      <c r="O44" s="32"/>
-      <c r="P44" s="14"/>
-    </row>
-    <row r="45" spans="1:16" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="14"/>
-      <c r="B45" s="34"/>
-      <c r="C45" s="35"/>
-      <c r="D45" s="35"/>
-      <c r="E45" s="35"/>
-      <c r="F45" s="35"/>
-      <c r="G45" s="35"/>
-      <c r="H45" s="35"/>
-      <c r="I45" s="35"/>
-      <c r="J45" s="35"/>
-      <c r="K45" s="35"/>
-      <c r="L45" s="35"/>
-      <c r="M45" s="35"/>
-      <c r="N45" s="35"/>
-      <c r="O45" s="36"/>
-      <c r="P45" s="14"/>
-    </row>
-    <row r="46" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="14"/>
-      <c r="B46" s="14"/>
-      <c r="C46" s="14"/>
-      <c r="D46" s="14"/>
-      <c r="E46" s="14"/>
-      <c r="F46" s="14"/>
-      <c r="G46" s="14"/>
-      <c r="H46" s="14"/>
-      <c r="I46" s="14"/>
-      <c r="J46" s="14"/>
-      <c r="K46" s="14"/>
-      <c r="L46" s="14"/>
-      <c r="M46" s="14"/>
-      <c r="N46" s="14"/>
-      <c r="O46" s="14"/>
-      <c r="P46" s="14"/>
+      <c r="F39" s="19"/>
+      <c r="G39" s="19"/>
+      <c r="H39" s="19"/>
+      <c r="I39" s="19"/>
+      <c r="J39" s="19"/>
+      <c r="K39" s="19"/>
+      <c r="O39" s="25"/>
+    </row>
+    <row r="40" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="6"/>
+      <c r="E40" s="19"/>
+      <c r="F40" s="19"/>
+      <c r="G40" s="19"/>
+      <c r="H40" s="19"/>
+      <c r="I40" s="19"/>
+      <c r="J40" s="19"/>
+      <c r="K40" s="19"/>
+      <c r="O40" s="25"/>
+    </row>
+    <row r="41" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="6"/>
+      <c r="O41" s="25"/>
+    </row>
+    <row r="42" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="6"/>
+      <c r="O42" s="25"/>
+    </row>
+    <row r="43" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="6"/>
+      <c r="O43" s="25"/>
+    </row>
+    <row r="44" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="6"/>
+      <c r="O44" s="25"/>
+    </row>
+    <row r="45" spans="2:15" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="8"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c r="L45" s="9"/>
+      <c r="M45" s="9"/>
+      <c r="N45" s="9"/>
+      <c r="O45" s="26"/>
     </row>
   </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="E40:K41"/>
-    <mergeCell ref="E36:K38"/>
-    <mergeCell ref="E39:K39"/>
-    <mergeCell ref="C33:M35"/>
-    <mergeCell ref="D28:M28"/>
-    <mergeCell ref="D30:M30"/>
-    <mergeCell ref="C25:M25"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="H23:L23"/>
-    <mergeCell ref="H22:L22"/>
-    <mergeCell ref="D26:M26"/>
+  <mergeCells count="24">
+    <mergeCell ref="B2:O4"/>
     <mergeCell ref="O5:O45"/>
     <mergeCell ref="C15:E15"/>
     <mergeCell ref="C16:E16"/>
@@ -2333,7 +2029,16 @@
     <mergeCell ref="B9:N10"/>
     <mergeCell ref="B19:N20"/>
     <mergeCell ref="C22:F22"/>
-    <mergeCell ref="B2:O4"/>
+    <mergeCell ref="C25:M25"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="H23:L23"/>
+    <mergeCell ref="H22:L22"/>
+    <mergeCell ref="D26:M26"/>
+    <mergeCell ref="E39:K40"/>
+    <mergeCell ref="E36:K38"/>
+    <mergeCell ref="C33:M35"/>
+    <mergeCell ref="D28:M28"/>
+    <mergeCell ref="D30:M30"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2342,7 +2047,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79B16281-594F-4424-89B7-F6AD70B2B4CB}">
-  <dimension ref="A1:J46"/>
+  <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
@@ -2702,210 +2407,6 @@
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2"/>
-      <c r="J35" s="2"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2"/>
-      <c r="J37" s="2"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
-      <c r="J38" s="2"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
-      <c r="J39" s="2"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
-      <c r="I40" s="2"/>
-      <c r="J40" s="2"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
-      <c r="I41" s="2"/>
-      <c r="J41" s="2"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="2"/>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
-      <c r="I42" s="2"/>
-      <c r="J42" s="2"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="2"/>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
-      <c r="I43" s="2"/>
-      <c r="J43" s="2"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="2"/>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
-      <c r="I44" s="2"/>
-      <c r="J44" s="2"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="2"/>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
-      <c r="I45" s="2"/>
-      <c r="J45" s="2"/>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="2"/>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
-      <c r="G46" s="2"/>
-      <c r="H46" s="2"/>
-      <c r="I46" s="2"/>
-      <c r="J46" s="2"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Stylesheet.xlsx
+++ b/Stylesheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dgabr\OneDrive\Documentos\Gabriel (cloud)\DeskPyLab\Lab - Projects for sale\XL-PDF drawer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6912A43-E60C-4A25-9C76-E72411F014FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{402C1C18-D483-476B-80D3-E0A52E90BAF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{64D02EFF-E96B-4B4A-A572-6D3FB01F69BE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{64D02EFF-E96B-4B4A-A572-6D3FB01F69BE}"/>
   </bookViews>
   <sheets>
     <sheet name="Weekly Newsletter" sheetId="5" r:id="rId1"/>
@@ -439,6 +439,78 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -451,6 +523,9 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -462,81 +537,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -860,8 +860,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{367D9362-5B3A-4189-A68F-0329A677184A}">
   <dimension ref="A1:J46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:I14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -886,14 +886,14 @@
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
@@ -902,10 +902,10 @@
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -923,68 +923,68 @@
       <c r="J4" s="2"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
     </row>
     <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="16"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
+      <c r="A6" s="41"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="41"/>
+      <c r="J6" s="41"/>
     </row>
     <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="16"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
+      <c r="A7" s="41"/>
+      <c r="B7" s="41"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="41"/>
+      <c r="J7" s="41"/>
     </row>
     <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="42"/>
+      <c r="J8" s="42"/>
     </row>
     <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="17"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
+      <c r="A9" s="42"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="42"/>
+      <c r="J9" s="42"/>
     </row>
     <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="2"/>
@@ -1000,52 +1000,52 @@
     </row>
     <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="2"/>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="38"/>
       <c r="J11" s="2"/>
     </row>
     <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="2"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="38"/>
+      <c r="I12" s="38"/>
       <c r="J12" s="2"/>
     </row>
     <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="2"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="38"/>
+      <c r="I13" s="38"/>
       <c r="J13" s="2"/>
     </row>
     <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="2"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="38"/>
+      <c r="I14" s="38"/>
       <c r="J14" s="2"/>
     </row>
     <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -1073,382 +1073,382 @@
       <c r="J16" s="2"/>
     </row>
     <row r="17" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="37"/>
+      <c r="J17" s="37"/>
     </row>
     <row r="18" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="13"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
+      <c r="A18" s="37"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="37"/>
+      <c r="J18" s="37"/>
     </row>
     <row r="19" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="13"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
+      <c r="A19" s="37"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="37"/>
+      <c r="I19" s="37"/>
+      <c r="J19" s="37"/>
     </row>
     <row r="20" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="34"/>
+      <c r="I20" s="34"/>
+      <c r="J20" s="34"/>
     </row>
     <row r="21" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="10"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
+      <c r="A21" s="34"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="34"/>
+      <c r="J21" s="34"/>
     </row>
     <row r="22" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="11" t="s">
+      <c r="A22" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
+      <c r="B22" s="35"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="35"/>
+      <c r="J22" s="35"/>
     </row>
     <row r="23" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="11"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="11"/>
+      <c r="A23" s="35"/>
+      <c r="B23" s="35"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="35"/>
+      <c r="J23" s="35"/>
     </row>
     <row r="24" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="11"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="11"/>
+      <c r="A24" s="35"/>
+      <c r="B24" s="35"/>
+      <c r="C24" s="35"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="35"/>
+      <c r="H24" s="35"/>
+      <c r="I24" s="35"/>
+      <c r="J24" s="35"/>
     </row>
     <row r="25" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="11"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="11"/>
+      <c r="A25" s="35"/>
+      <c r="B25" s="35"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="35"/>
+      <c r="E25" s="35"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="35"/>
+      <c r="I25" s="35"/>
+      <c r="J25" s="35"/>
     </row>
     <row r="26" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="11"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="11"/>
+      <c r="A26" s="35"/>
+      <c r="B26" s="35"/>
+      <c r="C26" s="35"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="35"/>
+      <c r="I26" s="35"/>
+      <c r="J26" s="35"/>
     </row>
     <row r="27" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="12" t="s">
+      <c r="A27" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="13"/>
-      <c r="J27" s="13"/>
+      <c r="B27" s="37"/>
+      <c r="C27" s="37"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="37"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="37"/>
+      <c r="H27" s="37"/>
+      <c r="I27" s="37"/>
+      <c r="J27" s="37"/>
     </row>
     <row r="28" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="13"/>
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="13"/>
+      <c r="A28" s="37"/>
+      <c r="B28" s="37"/>
+      <c r="C28" s="37"/>
+      <c r="D28" s="37"/>
+      <c r="E28" s="37"/>
+      <c r="F28" s="37"/>
+      <c r="G28" s="37"/>
+      <c r="H28" s="37"/>
+      <c r="I28" s="37"/>
+      <c r="J28" s="37"/>
     </row>
     <row r="29" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="13"/>
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="13"/>
-      <c r="J29" s="13"/>
+      <c r="A29" s="37"/>
+      <c r="B29" s="37"/>
+      <c r="C29" s="37"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="37"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="37"/>
+      <c r="H29" s="37"/>
+      <c r="I29" s="37"/>
+      <c r="J29" s="37"/>
     </row>
     <row r="30" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="10" t="s">
+      <c r="A30" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="10"/>
-      <c r="J30" s="10"/>
+      <c r="B30" s="34"/>
+      <c r="C30" s="34"/>
+      <c r="D30" s="34"/>
+      <c r="E30" s="34"/>
+      <c r="F30" s="34"/>
+      <c r="G30" s="34"/>
+      <c r="H30" s="34"/>
+      <c r="I30" s="34"/>
+      <c r="J30" s="34"/>
     </row>
     <row r="31" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="10"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="10"/>
-      <c r="J31" s="10"/>
+      <c r="A31" s="34"/>
+      <c r="B31" s="34"/>
+      <c r="C31" s="34"/>
+      <c r="D31" s="34"/>
+      <c r="E31" s="34"/>
+      <c r="F31" s="34"/>
+      <c r="G31" s="34"/>
+      <c r="H31" s="34"/>
+      <c r="I31" s="34"/>
+      <c r="J31" s="34"/>
     </row>
     <row r="32" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="11" t="s">
+      <c r="A32" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="B32" s="11"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="11"/>
-      <c r="I32" s="11"/>
-      <c r="J32" s="11"/>
+      <c r="B32" s="35"/>
+      <c r="C32" s="35"/>
+      <c r="D32" s="35"/>
+      <c r="E32" s="35"/>
+      <c r="F32" s="35"/>
+      <c r="G32" s="35"/>
+      <c r="H32" s="35"/>
+      <c r="I32" s="35"/>
+      <c r="J32" s="35"/>
     </row>
     <row r="33" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="11"/>
-      <c r="B33" s="11"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
-      <c r="H33" s="11"/>
-      <c r="I33" s="11"/>
-      <c r="J33" s="11"/>
+      <c r="A33" s="35"/>
+      <c r="B33" s="35"/>
+      <c r="C33" s="35"/>
+      <c r="D33" s="35"/>
+      <c r="E33" s="35"/>
+      <c r="F33" s="35"/>
+      <c r="G33" s="35"/>
+      <c r="H33" s="35"/>
+      <c r="I33" s="35"/>
+      <c r="J33" s="35"/>
     </row>
     <row r="34" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="11"/>
-      <c r="B34" s="11"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
-      <c r="H34" s="11"/>
-      <c r="I34" s="11"/>
-      <c r="J34" s="11"/>
+      <c r="A34" s="35"/>
+      <c r="B34" s="35"/>
+      <c r="C34" s="35"/>
+      <c r="D34" s="35"/>
+      <c r="E34" s="35"/>
+      <c r="F34" s="35"/>
+      <c r="G34" s="35"/>
+      <c r="H34" s="35"/>
+      <c r="I34" s="35"/>
+      <c r="J34" s="35"/>
     </row>
     <row r="35" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="11"/>
-      <c r="B35" s="11"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="11"/>
-      <c r="H35" s="11"/>
-      <c r="I35" s="11"/>
-      <c r="J35" s="11"/>
+      <c r="A35" s="35"/>
+      <c r="B35" s="35"/>
+      <c r="C35" s="35"/>
+      <c r="D35" s="35"/>
+      <c r="E35" s="35"/>
+      <c r="F35" s="35"/>
+      <c r="G35" s="35"/>
+      <c r="H35" s="35"/>
+      <c r="I35" s="35"/>
+      <c r="J35" s="35"/>
     </row>
     <row r="36" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="11"/>
-      <c r="B36" s="11"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="11"/>
-      <c r="H36" s="11"/>
-      <c r="I36" s="11"/>
-      <c r="J36" s="11"/>
+      <c r="A36" s="35"/>
+      <c r="B36" s="35"/>
+      <c r="C36" s="35"/>
+      <c r="D36" s="35"/>
+      <c r="E36" s="35"/>
+      <c r="F36" s="35"/>
+      <c r="G36" s="35"/>
+      <c r="H36" s="35"/>
+      <c r="I36" s="35"/>
+      <c r="J36" s="35"/>
     </row>
     <row r="37" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="12" t="s">
+      <c r="A37" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="B37" s="13"/>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="13"/>
-      <c r="H37" s="13"/>
-      <c r="I37" s="13"/>
-      <c r="J37" s="13"/>
+      <c r="B37" s="37"/>
+      <c r="C37" s="37"/>
+      <c r="D37" s="37"/>
+      <c r="E37" s="37"/>
+      <c r="F37" s="37"/>
+      <c r="G37" s="37"/>
+      <c r="H37" s="37"/>
+      <c r="I37" s="37"/>
+      <c r="J37" s="37"/>
     </row>
     <row r="38" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="13"/>
-      <c r="B38" s="13"/>
-      <c r="C38" s="13"/>
-      <c r="D38" s="13"/>
-      <c r="E38" s="13"/>
-      <c r="F38" s="13"/>
-      <c r="G38" s="13"/>
-      <c r="H38" s="13"/>
-      <c r="I38" s="13"/>
-      <c r="J38" s="13"/>
+      <c r="A38" s="37"/>
+      <c r="B38" s="37"/>
+      <c r="C38" s="37"/>
+      <c r="D38" s="37"/>
+      <c r="E38" s="37"/>
+      <c r="F38" s="37"/>
+      <c r="G38" s="37"/>
+      <c r="H38" s="37"/>
+      <c r="I38" s="37"/>
+      <c r="J38" s="37"/>
     </row>
     <row r="39" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="13"/>
-      <c r="B39" s="13"/>
-      <c r="C39" s="13"/>
-      <c r="D39" s="13"/>
-      <c r="E39" s="13"/>
-      <c r="F39" s="13"/>
-      <c r="G39" s="13"/>
-      <c r="H39" s="13"/>
-      <c r="I39" s="13"/>
-      <c r="J39" s="13"/>
+      <c r="A39" s="37"/>
+      <c r="B39" s="37"/>
+      <c r="C39" s="37"/>
+      <c r="D39" s="37"/>
+      <c r="E39" s="37"/>
+      <c r="F39" s="37"/>
+      <c r="G39" s="37"/>
+      <c r="H39" s="37"/>
+      <c r="I39" s="37"/>
+      <c r="J39" s="37"/>
     </row>
     <row r="40" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="10" t="s">
+      <c r="A40" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="B40" s="10"/>
-      <c r="C40" s="10"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="10"/>
-      <c r="G40" s="10"/>
-      <c r="H40" s="10"/>
-      <c r="I40" s="10"/>
-      <c r="J40" s="10"/>
+      <c r="B40" s="34"/>
+      <c r="C40" s="34"/>
+      <c r="D40" s="34"/>
+      <c r="E40" s="34"/>
+      <c r="F40" s="34"/>
+      <c r="G40" s="34"/>
+      <c r="H40" s="34"/>
+      <c r="I40" s="34"/>
+      <c r="J40" s="34"/>
     </row>
     <row r="41" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="10"/>
-      <c r="B41" s="10"/>
-      <c r="C41" s="10"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="10"/>
-      <c r="H41" s="10"/>
-      <c r="I41" s="10"/>
-      <c r="J41" s="10"/>
+      <c r="A41" s="34"/>
+      <c r="B41" s="34"/>
+      <c r="C41" s="34"/>
+      <c r="D41" s="34"/>
+      <c r="E41" s="34"/>
+      <c r="F41" s="34"/>
+      <c r="G41" s="34"/>
+      <c r="H41" s="34"/>
+      <c r="I41" s="34"/>
+      <c r="J41" s="34"/>
     </row>
     <row r="42" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="11" t="s">
+      <c r="A42" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="B42" s="11"/>
-      <c r="C42" s="11"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="11"/>
-      <c r="G42" s="11"/>
-      <c r="H42" s="11"/>
-      <c r="I42" s="11"/>
-      <c r="J42" s="11"/>
+      <c r="B42" s="35"/>
+      <c r="C42" s="35"/>
+      <c r="D42" s="35"/>
+      <c r="E42" s="35"/>
+      <c r="F42" s="35"/>
+      <c r="G42" s="35"/>
+      <c r="H42" s="35"/>
+      <c r="I42" s="35"/>
+      <c r="J42" s="35"/>
     </row>
     <row r="43" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="11"/>
-      <c r="B43" s="11"/>
-      <c r="C43" s="11"/>
-      <c r="D43" s="11"/>
-      <c r="E43" s="11"/>
-      <c r="F43" s="11"/>
-      <c r="G43" s="11"/>
-      <c r="H43" s="11"/>
-      <c r="I43" s="11"/>
-      <c r="J43" s="11"/>
+      <c r="A43" s="35"/>
+      <c r="B43" s="35"/>
+      <c r="C43" s="35"/>
+      <c r="D43" s="35"/>
+      <c r="E43" s="35"/>
+      <c r="F43" s="35"/>
+      <c r="G43" s="35"/>
+      <c r="H43" s="35"/>
+      <c r="I43" s="35"/>
+      <c r="J43" s="35"/>
     </row>
     <row r="44" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="11"/>
-      <c r="B44" s="11"/>
-      <c r="C44" s="11"/>
-      <c r="D44" s="11"/>
-      <c r="E44" s="11"/>
-      <c r="F44" s="11"/>
-      <c r="G44" s="11"/>
-      <c r="H44" s="11"/>
-      <c r="I44" s="11"/>
-      <c r="J44" s="11"/>
+      <c r="A44" s="35"/>
+      <c r="B44" s="35"/>
+      <c r="C44" s="35"/>
+      <c r="D44" s="35"/>
+      <c r="E44" s="35"/>
+      <c r="F44" s="35"/>
+      <c r="G44" s="35"/>
+      <c r="H44" s="35"/>
+      <c r="I44" s="35"/>
+      <c r="J44" s="35"/>
     </row>
     <row r="45" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="11"/>
-      <c r="B45" s="11"/>
-      <c r="C45" s="11"/>
-      <c r="D45" s="11"/>
-      <c r="E45" s="11"/>
-      <c r="F45" s="11"/>
-      <c r="G45" s="11"/>
-      <c r="H45" s="11"/>
-      <c r="I45" s="11"/>
-      <c r="J45" s="11"/>
+      <c r="A45" s="35"/>
+      <c r="B45" s="35"/>
+      <c r="C45" s="35"/>
+      <c r="D45" s="35"/>
+      <c r="E45" s="35"/>
+      <c r="F45" s="35"/>
+      <c r="G45" s="35"/>
+      <c r="H45" s="35"/>
+      <c r="I45" s="35"/>
+      <c r="J45" s="35"/>
     </row>
     <row r="46" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="11"/>
-      <c r="B46" s="11"/>
-      <c r="C46" s="11"/>
-      <c r="D46" s="11"/>
-      <c r="E46" s="11"/>
-      <c r="F46" s="11"/>
-      <c r="G46" s="11"/>
-      <c r="H46" s="11"/>
-      <c r="I46" s="11"/>
-      <c r="J46" s="11"/>
+      <c r="A46" s="35"/>
+      <c r="B46" s="35"/>
+      <c r="C46" s="35"/>
+      <c r="D46" s="35"/>
+      <c r="E46" s="35"/>
+      <c r="F46" s="35"/>
+      <c r="G46" s="35"/>
+      <c r="H46" s="35"/>
+      <c r="I46" s="35"/>
+      <c r="J46" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -1476,62 +1476,62 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C15A16F5-7B58-45FF-9D24-869C14B9252A}">
   <dimension ref="B1:O45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36:K38"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="2:15" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34"/>
-      <c r="O2" s="35"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="18"/>
     </row>
     <row r="3" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="36"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="37"/>
-      <c r="L3" s="37"/>
-      <c r="M3" s="37"/>
-      <c r="N3" s="37"/>
-      <c r="O3" s="38"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="21"/>
     </row>
     <row r="4" spans="2:15" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="39"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="40"/>
-      <c r="N4" s="40"/>
-      <c r="O4" s="41"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="23"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="23"/>
+      <c r="O4" s="24"/>
     </row>
     <row r="5" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="6"/>
@@ -1692,9 +1692,9 @@
     </row>
     <row r="17" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="6"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
       <c r="O17" s="25"/>
     </row>
     <row r="18" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1741,32 +1741,32 @@
     </row>
     <row r="22" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="6"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-      <c r="H22" s="21"/>
-      <c r="I22" s="21"/>
-      <c r="J22" s="21"/>
-      <c r="K22" s="21"/>
-      <c r="L22" s="21"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
       <c r="O22" s="25"/>
     </row>
     <row r="23" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="6"/>
-      <c r="C23" s="20" t="s">
+      <c r="C23" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
-      <c r="H23" s="20" t="s">
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="H23" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="I23" s="20"/>
-      <c r="J23" s="20"/>
-      <c r="K23" s="20"/>
-      <c r="L23" s="20"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
       <c r="O23" s="25"/>
     </row>
     <row r="24" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1775,36 +1775,36 @@
     </row>
     <row r="25" spans="2:15" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="6"/>
-      <c r="C25" s="24" t="s">
+      <c r="C25" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="D25" s="24"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="24"/>
-      <c r="H25" s="24"/>
-      <c r="I25" s="24"/>
-      <c r="J25" s="24"/>
-      <c r="K25" s="24"/>
-      <c r="L25" s="24"/>
-      <c r="M25" s="24"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="33"/>
+      <c r="I25" s="33"/>
+      <c r="J25" s="33"/>
+      <c r="K25" s="33"/>
+      <c r="L25" s="33"/>
+      <c r="M25" s="33"/>
       <c r="O25" s="25"/>
     </row>
     <row r="26" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="6"/>
-      <c r="C26" s="42"/>
-      <c r="D26" s="23" t="s">
+      <c r="C26" s="10"/>
+      <c r="D26" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E26" s="23"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="23"/>
-      <c r="I26" s="23"/>
-      <c r="J26" s="23"/>
-      <c r="K26" s="23"/>
-      <c r="L26" s="23"/>
-      <c r="M26" s="23"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="13"/>
+      <c r="M26" s="13"/>
       <c r="O26" s="25"/>
     </row>
     <row r="27" spans="2:15" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
@@ -1823,19 +1823,19 @@
     </row>
     <row r="28" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="6"/>
-      <c r="C28" s="42"/>
-      <c r="D28" s="23" t="s">
+      <c r="C28" s="10"/>
+      <c r="D28" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="E28" s="23"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="23"/>
-      <c r="H28" s="23"/>
-      <c r="I28" s="23"/>
-      <c r="J28" s="23"/>
-      <c r="K28" s="23"/>
-      <c r="L28" s="23"/>
-      <c r="M28" s="23"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="13"/>
+      <c r="M28" s="13"/>
       <c r="O28" s="25"/>
     </row>
     <row r="29" spans="2:15" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
@@ -1854,19 +1854,19 @@
     </row>
     <row r="30" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="6"/>
-      <c r="C30" s="42"/>
-      <c r="D30" s="23" t="s">
+      <c r="C30" s="10"/>
+      <c r="D30" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E30" s="23"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="23"/>
-      <c r="H30" s="23"/>
-      <c r="I30" s="23"/>
-      <c r="J30" s="23"/>
-      <c r="K30" s="23"/>
-      <c r="L30" s="23"/>
-      <c r="M30" s="23"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="13"/>
+      <c r="K30" s="13"/>
+      <c r="L30" s="13"/>
+      <c r="M30" s="13"/>
       <c r="O30" s="25"/>
     </row>
     <row r="31" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1879,106 +1879,106 @@
     </row>
     <row r="33" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="6"/>
-      <c r="C33" s="22" t="s">
+      <c r="C33" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D33" s="22"/>
-      <c r="E33" s="22"/>
-      <c r="F33" s="22"/>
-      <c r="G33" s="22"/>
-      <c r="H33" s="22"/>
-      <c r="I33" s="22"/>
-      <c r="J33" s="22"/>
-      <c r="K33" s="22"/>
-      <c r="L33" s="22"/>
-      <c r="M33" s="22"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="15"/>
+      <c r="K33" s="15"/>
+      <c r="L33" s="15"/>
+      <c r="M33" s="15"/>
       <c r="O33" s="25"/>
     </row>
     <row r="34" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="6"/>
-      <c r="C34" s="22"/>
-      <c r="D34" s="22"/>
-      <c r="E34" s="22"/>
-      <c r="F34" s="22"/>
-      <c r="G34" s="22"/>
-      <c r="H34" s="22"/>
-      <c r="I34" s="22"/>
-      <c r="J34" s="22"/>
-      <c r="K34" s="22"/>
-      <c r="L34" s="22"/>
-      <c r="M34" s="22"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="15"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="15"/>
+      <c r="K34" s="15"/>
+      <c r="L34" s="15"/>
+      <c r="M34" s="15"/>
       <c r="O34" s="25"/>
     </row>
     <row r="35" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="6"/>
-      <c r="C35" s="22"/>
-      <c r="D35" s="22"/>
-      <c r="E35" s="22"/>
-      <c r="F35" s="22"/>
-      <c r="G35" s="22"/>
-      <c r="H35" s="22"/>
-      <c r="I35" s="22"/>
-      <c r="J35" s="22"/>
-      <c r="K35" s="22"/>
-      <c r="L35" s="22"/>
-      <c r="M35" s="22"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="15"/>
+      <c r="K35" s="15"/>
+      <c r="L35" s="15"/>
+      <c r="M35" s="15"/>
       <c r="O35" s="25"/>
     </row>
     <row r="36" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="6"/>
-      <c r="E36" s="20"/>
-      <c r="F36" s="20"/>
-      <c r="G36" s="20"/>
-      <c r="H36" s="20"/>
-      <c r="I36" s="20"/>
-      <c r="J36" s="20"/>
-      <c r="K36" s="20"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="11"/>
+      <c r="K36" s="11"/>
       <c r="O36" s="25"/>
     </row>
     <row r="37" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="6"/>
-      <c r="E37" s="20"/>
-      <c r="F37" s="20"/>
-      <c r="G37" s="20"/>
-      <c r="H37" s="20"/>
-      <c r="I37" s="20"/>
-      <c r="J37" s="20"/>
-      <c r="K37" s="20"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="11"/>
+      <c r="K37" s="11"/>
       <c r="O37" s="25"/>
     </row>
     <row r="38" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="6"/>
-      <c r="E38" s="21"/>
-      <c r="F38" s="21"/>
-      <c r="G38" s="21"/>
-      <c r="H38" s="21"/>
-      <c r="I38" s="21"/>
-      <c r="J38" s="21"/>
-      <c r="K38" s="21"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="12"/>
+      <c r="I38" s="12"/>
+      <c r="J38" s="12"/>
+      <c r="K38" s="12"/>
       <c r="O38" s="25"/>
     </row>
     <row r="39" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="6"/>
-      <c r="E39" s="19" t="s">
+      <c r="E39" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="F39" s="19"/>
-      <c r="G39" s="19"/>
-      <c r="H39" s="19"/>
-      <c r="I39" s="19"/>
-      <c r="J39" s="19"/>
-      <c r="K39" s="19"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="14"/>
+      <c r="H39" s="14"/>
+      <c r="I39" s="14"/>
+      <c r="J39" s="14"/>
+      <c r="K39" s="14"/>
       <c r="O39" s="25"/>
     </row>
     <row r="40" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="6"/>
-      <c r="E40" s="19"/>
-      <c r="F40" s="19"/>
-      <c r="G40" s="19"/>
-      <c r="H40" s="19"/>
-      <c r="I40" s="19"/>
-      <c r="J40" s="19"/>
-      <c r="K40" s="19"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="14"/>
+      <c r="H40" s="14"/>
+      <c r="I40" s="14"/>
+      <c r="J40" s="14"/>
+      <c r="K40" s="14"/>
       <c r="O40" s="25"/>
     </row>
     <row r="41" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">

--- a/Stylesheet.xlsx
+++ b/Stylesheet.xlsx
@@ -429,7 +429,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A1" sqref="A1:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>

--- a/Stylesheet.xlsx
+++ b/Stylesheet.xlsx
@@ -1,41 +1,155 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dgabr\OneDrive\Documentos\Gabriel (cloud)\DeskPyLab\Lab - Projects for sale\XL-PDF drawer\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{946E3526-2DEE-4373-8225-E99FCF870696}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Form" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Banner" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Certifications" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Form" sheetId="1" r:id="rId1"/>
+    <sheet name="Weekly Banner" sheetId="2" r:id="rId2"/>
+    <sheet name="Certifications" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata">
+  <metadataTypes count="1">
+    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLRICHVALUE" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <valueMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </valueMetadata>
+</metadata>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+  <si>
+    <t>CONTACT FORM</t>
+  </si>
+  <si>
+    <t>DATE</t>
+  </si>
+  <si>
+    <t>FIRST LASTNAME</t>
+  </si>
+  <si>
+    <t>SECOND LASTNAME</t>
+  </si>
+  <si>
+    <t>NAME</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>PHONE</t>
+  </si>
+  <si>
+    <t>EMAIL</t>
+  </si>
+  <si>
+    <t>ID EXPIRING DATE</t>
+  </si>
+  <si>
+    <t>AGE</t>
+  </si>
+  <si>
+    <t>Prefered contact way:</t>
+  </si>
+  <si>
+    <t>Phone call</t>
+  </si>
+  <si>
+    <t>E-mail</t>
+  </si>
+  <si>
+    <t>WhatsApp message</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
       <color theme="1"/>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -43,86 +157,237 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="19">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
+<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <global>
+    <keyFlags>
+      <key name="_Self">
+        <flag name="ExcludeFromFile" value="1"/>
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_DisplayString">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Flags">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Format">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_SubLabel">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Attribution">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Icon">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Display">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_CanonicalPropertyNames">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_ClassificationId">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+    </keyFlags>
+  </global>
+</rvTypesInfo>
+</file>
+
+<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
+  <rv s="0">
+    <v>0</v>
+    <v>5</v>
+  </rv>
+</rvData>
+</file>
+
+<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
+  <s t="_localImage">
+    <k n="_rvRel:LocalImageIdentifier" t="i"/>
+    <k n="CalcOrigin" t="i"/>
+  </s>
+</rvStructures>
+</file>
+
+<file path=xl/richData/richValueRel.xml><?xml version="1.0" encoding="utf-8"?>
+<richValueRels xmlns="http://schemas.microsoft.com/office/spreadsheetml/2022/richvaluerel" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rel r:id="rId1"/>
+</richValueRels>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -421,77 +686,681 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:E5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S42" sqref="S42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="6.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr"/>
-      <c r="B1" t="inlineStr"/>
-      <c r="C1" t="inlineStr"/>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr"/>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr"/>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr"/>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K9" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C13" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C17" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C21" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="G21" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C24" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C25" s="7"/>
+      <c r="D25" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C26" s="7"/>
+      <c r="D26" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="8"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C27" s="7"/>
+      <c r="D27" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="8"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="9"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="9"/>
+      <c r="O29" s="1"/>
+    </row>
+    <row r="30" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="9"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="9"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="9"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31" s="10" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="11"/>
+      <c r="M31" s="11"/>
+      <c r="N31" s="11"/>
+      <c r="O31" s="12"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32" s="13"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="14"/>
+      <c r="K32" s="14"/>
+      <c r="L32" s="14"/>
+      <c r="M32" s="14"/>
+      <c r="N32" s="14"/>
+      <c r="O32" s="15"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A33" s="13"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="14"/>
+      <c r="J33" s="14"/>
+      <c r="K33" s="14"/>
+      <c r="L33" s="14"/>
+      <c r="M33" s="14"/>
+      <c r="N33" s="14"/>
+      <c r="O33" s="15"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A34" s="13"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="14"/>
+      <c r="J34" s="14"/>
+      <c r="K34" s="14"/>
+      <c r="L34" s="14"/>
+      <c r="M34" s="14"/>
+      <c r="N34" s="14"/>
+      <c r="O34" s="15"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A35" s="13"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="14"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="14"/>
+      <c r="J35" s="14"/>
+      <c r="K35" s="14"/>
+      <c r="L35" s="14"/>
+      <c r="M35" s="14"/>
+      <c r="N35" s="14"/>
+      <c r="O35" s="15"/>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A36" s="13"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="14"/>
+      <c r="J36" s="14"/>
+      <c r="K36" s="14"/>
+      <c r="L36" s="14"/>
+      <c r="M36" s="14"/>
+      <c r="N36" s="14"/>
+      <c r="O36" s="15"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A37" s="13"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="14"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="14"/>
+      <c r="J37" s="14"/>
+      <c r="K37" s="14"/>
+      <c r="L37" s="14"/>
+      <c r="M37" s="14"/>
+      <c r="N37" s="14"/>
+      <c r="O37" s="15"/>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A38" s="13"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="14"/>
+      <c r="H38" s="14"/>
+      <c r="I38" s="14"/>
+      <c r="J38" s="14"/>
+      <c r="K38" s="14"/>
+      <c r="L38" s="14"/>
+      <c r="M38" s="14"/>
+      <c r="N38" s="14"/>
+      <c r="O38" s="15"/>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A39" s="13"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="14"/>
+      <c r="H39" s="14"/>
+      <c r="I39" s="14"/>
+      <c r="J39" s="14"/>
+      <c r="K39" s="14"/>
+      <c r="L39" s="14"/>
+      <c r="M39" s="14"/>
+      <c r="N39" s="14"/>
+      <c r="O39" s="15"/>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A40" s="13"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="14"/>
+      <c r="H40" s="14"/>
+      <c r="I40" s="14"/>
+      <c r="J40" s="14"/>
+      <c r="K40" s="14"/>
+      <c r="L40" s="14"/>
+      <c r="M40" s="14"/>
+      <c r="N40" s="14"/>
+      <c r="O40" s="15"/>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A41" s="13"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="14"/>
+      <c r="H41" s="14"/>
+      <c r="I41" s="14"/>
+      <c r="J41" s="14"/>
+      <c r="K41" s="14"/>
+      <c r="L41" s="14"/>
+      <c r="M41" s="14"/>
+      <c r="N41" s="14"/>
+      <c r="O41" s="15"/>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A42" s="13"/>
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+      <c r="G42" s="14"/>
+      <c r="H42" s="14"/>
+      <c r="I42" s="14"/>
+      <c r="J42" s="14"/>
+      <c r="K42" s="14"/>
+      <c r="L42" s="14"/>
+      <c r="M42" s="14"/>
+      <c r="N42" s="14"/>
+      <c r="O42" s="15"/>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A43" s="13"/>
+      <c r="B43" s="14"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
+      <c r="G43" s="14"/>
+      <c r="H43" s="14"/>
+      <c r="I43" s="14"/>
+      <c r="J43" s="14"/>
+      <c r="K43" s="14"/>
+      <c r="L43" s="14"/>
+      <c r="M43" s="14"/>
+      <c r="N43" s="14"/>
+      <c r="O43" s="15"/>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A44" s="13"/>
+      <c r="B44" s="14"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="14"/>
+      <c r="G44" s="14"/>
+      <c r="H44" s="14"/>
+      <c r="I44" s="14"/>
+      <c r="J44" s="14"/>
+      <c r="K44" s="14"/>
+      <c r="L44" s="14"/>
+      <c r="M44" s="14"/>
+      <c r="N44" s="14"/>
+      <c r="O44" s="15"/>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A45" s="13"/>
+      <c r="B45" s="14"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="14"/>
+      <c r="G45" s="14"/>
+      <c r="H45" s="14"/>
+      <c r="I45" s="14"/>
+      <c r="J45" s="14"/>
+      <c r="K45" s="14"/>
+      <c r="L45" s="14"/>
+      <c r="M45" s="14"/>
+      <c r="N45" s="14"/>
+      <c r="O45" s="15"/>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A46" s="13"/>
+      <c r="B46" s="14"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="14"/>
+      <c r="G46" s="14"/>
+      <c r="H46" s="14"/>
+      <c r="I46" s="14"/>
+      <c r="J46" s="14"/>
+      <c r="K46" s="14"/>
+      <c r="L46" s="14"/>
+      <c r="M46" s="14"/>
+      <c r="N46" s="14"/>
+      <c r="O46" s="15"/>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A47" s="13"/>
+      <c r="B47" s="14"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="14"/>
+      <c r="G47" s="14"/>
+      <c r="H47" s="14"/>
+      <c r="I47" s="14"/>
+      <c r="J47" s="14"/>
+      <c r="K47" s="14"/>
+      <c r="L47" s="14"/>
+      <c r="M47" s="14"/>
+      <c r="N47" s="14"/>
+      <c r="O47" s="15"/>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A48" s="13"/>
+      <c r="B48" s="14"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="14"/>
+      <c r="G48" s="14"/>
+      <c r="H48" s="14"/>
+      <c r="I48" s="14"/>
+      <c r="J48" s="14"/>
+      <c r="K48" s="14"/>
+      <c r="L48" s="14"/>
+      <c r="M48" s="14"/>
+      <c r="N48" s="14"/>
+      <c r="O48" s="15"/>
+    </row>
+    <row r="49" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="16"/>
+      <c r="B49" s="17"/>
+      <c r="C49" s="17"/>
+      <c r="D49" s="17"/>
+      <c r="E49" s="17"/>
+      <c r="F49" s="17"/>
+      <c r="G49" s="17"/>
+      <c r="H49" s="17"/>
+      <c r="I49" s="17"/>
+      <c r="J49" s="17"/>
+      <c r="K49" s="17"/>
+      <c r="L49" s="17"/>
+      <c r="M49" s="17"/>
+      <c r="N49" s="17"/>
+      <c r="O49" s="18"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <mergeCells count="24">
+    <mergeCell ref="C24:M24"/>
+    <mergeCell ref="D25:M25"/>
+    <mergeCell ref="D26:M26"/>
+    <mergeCell ref="D27:M27"/>
+    <mergeCell ref="A31:O49"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="K17:M17"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="K16:M16"/>
+    <mergeCell ref="A4:O5"/>
+    <mergeCell ref="K12:M12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="K8:M8"/>
+    <mergeCell ref="K9:M9"/>
+  </mergeCells>
+  <pageMargins left="0.5" right="0.25" top="0.5" bottom="0.5" header="0" footer="0"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
